--- a/feature/harmonize-profiles-descriptions/ig/StructureDefinition-FrAppointmentSAS.xlsx
+++ b/feature/harmonize-profiles-descriptions/ig/StructureDefinition-FrAppointmentSAS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T16:53:35+00:00</t>
+    <t>2024-12-03T17:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Appointment, dérivé de FrAppointment, pour le cas d'usage prise de RDV de la plateforme SAS (Service d'accès aux soins)</t>
+    <t>Profil de Appointment, dérivé de FrAppointment, pour le cas d'usage prise de RDV de la plateforme SAS - Commun cas d'usage PS Indiv et CPTS</t>
   </si>
   <si>
     <t>Purpose</t>
